--- a/Projects/HEINEKENMX/Cigarros/Data/KPI Template (External Targets) Feb18.xlsx
+++ b/Projects/HEINEKENMX/Cigarros/Data/KPI Template (External Targets) Feb18.xlsx
@@ -29,21 +29,25 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$229</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7411" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7411" uniqueCount="406">
   <si>
     <t xml:space="preserve">GZ</t>
   </si>
@@ -360,7 +364,7 @@
     <t xml:space="preserve">SOL NI BOT (1.18L)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhibidor 25 frentes</t>
+    <t xml:space="preserve">Exhibidor 25 Frentes</t>
   </si>
   <si>
     <t xml:space="preserve">LUCKY STRIKE 20s ORIGINAL CD 1 X 10 CJ</t>
@@ -426,7 +430,7 @@
     <t xml:space="preserve">LINK C/ FILTRO ROJO 20s 1X10 CJ NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhibidor 50 frentes</t>
+    <t xml:space="preserve">Exhibidor 50 Frentes</t>
   </si>
   <si>
     <t xml:space="preserve">PALL MALL XL NEW YORK MOONRISE 20s</t>
@@ -462,7 +466,7 @@
     <t xml:space="preserve">WINSTON BLUE 20´s 1X10</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhibidor 75 frentes</t>
+    <t xml:space="preserve">Exhibidor 75 Frentes</t>
   </si>
   <si>
     <t xml:space="preserve">Góndola 3 líneas</t>
@@ -474,7 +478,7 @@
     <t xml:space="preserve">Góndola 2 líneas</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhibidor 18 frentes</t>
+    <t xml:space="preserve">Exhibidor 18 Frentes</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -844,6 +848,18 @@
   </si>
   <si>
     <t xml:space="preserve">Coca Cola, Pepsi, Cerveza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibidor 18 frentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibidor 25 frentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibidor 50 frentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibidor 75 frentes</t>
   </si>
   <si>
     <t xml:space="preserve">Pepsi, Peñafiel</t>
@@ -1817,9 +1833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1833,7 +1849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="141840" y="20520"/>
-          <a:ext cx="1237680" cy="336600"/>
+          <a:ext cx="1256400" cy="336240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,9 +1922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1922,7 +1938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="141120" y="20520"/>
-          <a:ext cx="1230120" cy="336600"/>
+          <a:ext cx="1258560" cy="336240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,9 +2011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>999720</xdr:colOff>
+      <xdr:colOff>999360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2011,7 +2027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="110520" y="20520"/>
-          <a:ext cx="889200" cy="336600"/>
+          <a:ext cx="888840" cy="336240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,9 +2100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>999720</xdr:colOff>
+      <xdr:colOff>999360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2100,7 +2116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="110520" y="20520"/>
-          <a:ext cx="889200" cy="336600"/>
+          <a:ext cx="888840" cy="336240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2168,9 +2184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>999720</xdr:colOff>
+      <xdr:colOff>999360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2183,8 +2199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3463200" y="20520"/>
-          <a:ext cx="889200" cy="336600"/>
+          <a:off x="3539520" y="20520"/>
+          <a:ext cx="888840" cy="336240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,7 +2232,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352680" y="0"/>
+          <a:off x="3429000" y="0"/>
           <a:ext cx="360" cy="377640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2284,20 +2300,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L400" activeCellId="0" sqref="L400"/>
+      <selection pane="bottomLeft" activeCell="L400" activeCellId="3" sqref="C3:C74 C138:C197 J2 L400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.6111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="46.0555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.2333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24372,23 +24388,23 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C183" activeCellId="0" sqref="C183"/>
+      <selection pane="bottomLeft" activeCell="C149" activeCellId="1" sqref="C3:C74 C138:C197 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.8814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.0555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32190,18 +32206,18 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G24" activeCellId="3" sqref="C3:C74 C138:C197 J2 G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5481481481482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40619,20 +40635,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="3" sqref="C3:C74 C138:C197 J2 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43935,15 +43951,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="3" sqref="C3:C74 C138:C197 J2 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.0555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.4259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44065,22 +44081,22 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44098,10 +44114,10 @@
         <v>200</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44109,10 +44125,10 @@
         <v>159</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44120,10 +44136,10 @@
         <v>205</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44131,10 +44147,10 @@
         <v>174</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44142,10 +44158,10 @@
         <v>187</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44153,10 +44169,10 @@
         <v>175</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44164,10 +44180,10 @@
         <v>206</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44175,10 +44191,10 @@
         <v>176</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44186,10 +44202,10 @@
         <v>196</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44197,10 +44213,10 @@
         <v>185</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44208,10 +44224,10 @@
         <v>186</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44219,10 +44235,10 @@
         <v>231</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44230,10 +44246,10 @@
         <v>238</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44283,34 +44299,34 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="C3:C74 C138:C197 J2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="22" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="22" width="12.5444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F1" s="0"/>
       <c r="H1" s="22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44318,7 +44334,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F2" s="0"/>
       <c r="H2" s="0"/>
@@ -44328,7 +44344,7 @@
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F3" s="0"/>
       <c r="H3" s="0"/>
@@ -44338,7 +44354,7 @@
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F4" s="0"/>
       <c r="H4" s="0"/>
@@ -44347,10 +44363,10 @@
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F5" s="0"/>
       <c r="H5" s="0"/>
@@ -44360,7 +44376,7 @@
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F6" s="0"/>
       <c r="H6" s="0"/>
@@ -44370,7 +44386,7 @@
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
@@ -44378,17 +44394,17 @@
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32"/>
       <c r="B8" s="35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F8" s="36"/>
       <c r="H8" s="22" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44396,7 +44412,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="32"/>
       <c r="D9" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F9" s="36"/>
       <c r="H9" s="0"/>
@@ -44406,7 +44422,7 @@
       <c r="B10" s="35"/>
       <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F10" s="36"/>
       <c r="H10" s="0"/>
@@ -44416,7 +44432,7 @@
       <c r="B11" s="35"/>
       <c r="C11" s="32"/>
       <c r="D11" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F11" s="36"/>
       <c r="H11" s="0"/>
@@ -44425,10 +44441,10 @@
       <c r="A12" s="32"/>
       <c r="B12" s="35"/>
       <c r="C12" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F12" s="0"/>
       <c r="H12" s="0"/>
@@ -44438,7 +44454,7 @@
       <c r="B13" s="35"/>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
@@ -44448,7 +44464,7 @@
       <c r="B14" s="35"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
@@ -44456,17 +44472,17 @@
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="32"/>
       <c r="B15" s="35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F15" s="0"/>
       <c r="H15" s="22" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44474,7 +44490,7 @@
       <c r="B16" s="35"/>
       <c r="C16" s="32"/>
       <c r="D16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F16" s="0"/>
       <c r="H16" s="0"/>
@@ -44484,7 +44500,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="32"/>
       <c r="D17" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F17" s="0"/>
       <c r="H17" s="0"/>
@@ -44494,7 +44510,7 @@
       <c r="B18" s="35"/>
       <c r="C18" s="32"/>
       <c r="D18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F18" s="0"/>
       <c r="H18" s="0"/>
@@ -44503,10 +44519,10 @@
       <c r="A19" s="32"/>
       <c r="B19" s="35"/>
       <c r="C19" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
@@ -44516,7 +44532,7 @@
       <c r="B20" s="35"/>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
@@ -44526,7 +44542,7 @@
       <c r="B21" s="35"/>
       <c r="C21" s="33"/>
       <c r="D21" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="0"/>
@@ -44534,17 +44550,17 @@
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="32"/>
       <c r="B22" s="35" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44552,7 +44568,7 @@
       <c r="B23" s="35"/>
       <c r="C23" s="32"/>
       <c r="D23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="0"/>
@@ -44562,7 +44578,7 @@
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="0"/>
@@ -44572,7 +44588,7 @@
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
@@ -44581,10 +44597,10 @@
       <c r="A26" s="32"/>
       <c r="B26" s="35"/>
       <c r="C26" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F26" s="0"/>
       <c r="H26" s="0"/>
@@ -44594,7 +44610,7 @@
       <c r="B27" s="35"/>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F27" s="0"/>
       <c r="H27" s="0"/>
@@ -44604,7 +44620,7 @@
       <c r="B28" s="35"/>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F28" s="0"/>
       <c r="H28" s="0"/>
@@ -44612,17 +44628,17 @@
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32"/>
       <c r="B29" s="32" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F29" s="36"/>
       <c r="H29" s="22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44630,7 +44646,7 @@
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F30" s="36"/>
       <c r="H30" s="0"/>
@@ -44640,7 +44656,7 @@
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F31" s="36"/>
       <c r="H31" s="0"/>
@@ -44650,7 +44666,7 @@
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F32" s="36"/>
       <c r="H32" s="0"/>
@@ -44659,10 +44675,10 @@
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H33" s="0"/>
     </row>
@@ -44671,7 +44687,7 @@
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H34" s="0"/>
     </row>
@@ -44680,23 +44696,23 @@
       <c r="B35" s="32"/>
       <c r="C35" s="33"/>
       <c r="D35" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="32"/>
       <c r="B36" s="35" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44704,7 +44720,7 @@
       <c r="B37" s="35"/>
       <c r="C37" s="32"/>
       <c r="D37" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H37" s="0"/>
     </row>
@@ -44713,7 +44729,7 @@
       <c r="B38" s="35"/>
       <c r="C38" s="32"/>
       <c r="D38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H38" s="0"/>
     </row>
@@ -44722,7 +44738,7 @@
       <c r="B39" s="35"/>
       <c r="C39" s="32"/>
       <c r="D39" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H39" s="0"/>
     </row>
@@ -44730,10 +44746,10 @@
       <c r="A40" s="32"/>
       <c r="B40" s="35"/>
       <c r="C40" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H40" s="0"/>
     </row>
@@ -44742,7 +44758,7 @@
       <c r="B41" s="35"/>
       <c r="C41" s="33"/>
       <c r="D41" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H41" s="0"/>
     </row>
@@ -44751,23 +44767,23 @@
       <c r="B42" s="35"/>
       <c r="C42" s="33"/>
       <c r="D42" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
       <c r="B43" s="35" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44775,7 +44791,7 @@
       <c r="B44" s="35"/>
       <c r="C44" s="32"/>
       <c r="D44" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H44" s="0"/>
     </row>
@@ -44791,7 +44807,7 @@
       <c r="B46" s="35"/>
       <c r="C46" s="32"/>
       <c r="D46" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H46" s="0"/>
     </row>
@@ -44799,10 +44815,10 @@
       <c r="A47" s="32"/>
       <c r="B47" s="35"/>
       <c r="C47" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H47" s="0"/>
     </row>
@@ -44811,7 +44827,7 @@
       <c r="B48" s="35"/>
       <c r="C48" s="33"/>
       <c r="D48" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H48" s="0"/>
     </row>
@@ -44820,23 +44836,23 @@
       <c r="B49" s="35"/>
       <c r="C49" s="33"/>
       <c r="D49" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="32"/>
       <c r="B50" s="35" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44844,7 +44860,7 @@
       <c r="B51" s="35"/>
       <c r="C51" s="32"/>
       <c r="D51" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44858,17 +44874,17 @@
       <c r="B53" s="35"/>
       <c r="C53" s="32"/>
       <c r="D53" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="32"/>
       <c r="B54" s="35"/>
       <c r="C54" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44876,7 +44892,7 @@
       <c r="B55" s="35"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44884,7 +44900,7 @@
       <c r="B56" s="35"/>
       <c r="C56" s="33"/>
       <c r="D56" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -44933,28 +44949,28 @@
   <dimension ref="A1:AI341"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="C3:C74 C138:C197 J2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.137037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="55.0740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1185185185185"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.1185185185185"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q1" s="37" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
       <c r="U1" s="37" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="V1" s="37"/>
       <c r="W1" s="37"/>
@@ -44973,13 +44989,13 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="38" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44990,7 +45006,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U3" s="39" t="n">
         <v>8504597</v>
@@ -44999,7 +45015,7 @@
         <v>15</v>
       </c>
       <c r="W3" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="X3" s="28"/>
       <c r="Y3" s="39" t="n">
@@ -45009,7 +45025,7 @@
         <v>15</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AC3" s="39" t="n">
         <v>11336</v>
@@ -45018,7 +45034,7 @@
         <v>15</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG3" s="39" t="n">
         <v>17365</v>
@@ -45027,18 +45043,18 @@
         <v>15</v>
       </c>
       <c r="AI3" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="41" t="n">
         <v>9473</v>
@@ -45047,7 +45063,7 @@
         <v>65</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="U4" s="41" t="n">
         <v>8504607</v>
@@ -45056,7 +45072,7 @@
         <v>65</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X4" s="28"/>
       <c r="Y4" s="41" t="n">
@@ -45066,7 +45082,7 @@
         <v>65</v>
       </c>
       <c r="AA4" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC4" s="41" t="n">
         <v>11337</v>
@@ -45075,7 +45091,7 @@
         <v>65</v>
       </c>
       <c r="AE4" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG4" s="41" t="n">
         <v>12906</v>
@@ -45084,27 +45100,27 @@
         <v>65</v>
       </c>
       <c r="AI4" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="41" t="n">
         <v>13571</v>
@@ -45113,7 +45129,7 @@
         <v>65</v>
       </c>
       <c r="S5" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="U5" s="41" t="n">
         <v>8506601</v>
@@ -45122,7 +45138,7 @@
         <v>65</v>
       </c>
       <c r="W5" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X5" s="28"/>
       <c r="Y5" s="41" t="n">
@@ -45132,7 +45148,7 @@
         <v>65</v>
       </c>
       <c r="AA5" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC5" s="41" t="n">
         <v>11244</v>
@@ -45141,7 +45157,7 @@
         <v>65</v>
       </c>
       <c r="AE5" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG5" s="41" t="n">
         <v>17262</v>
@@ -45150,7 +45166,7 @@
         <v>65</v>
       </c>
       <c r="AI5" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45162,10 +45178,10 @@
         <v>144465</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">VLOOKUP(G6,$B$98:$C$341,2,0)</f>
@@ -45175,10 +45191,10 @@
         <v>143234</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L6" s="46" t="n">
         <v>11219</v>
@@ -45187,7 +45203,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="41" t="n">
         <v>17021</v>
@@ -45196,7 +45212,7 @@
         <v>65</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="U6" s="41" t="n">
         <v>8504628</v>
@@ -45205,7 +45221,7 @@
         <v>65</v>
       </c>
       <c r="W6" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
@@ -45218,7 +45234,7 @@
         <v>65</v>
       </c>
       <c r="AE6" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG6" s="41" t="n">
         <v>13065</v>
@@ -45227,7 +45243,7 @@
         <v>65</v>
       </c>
       <c r="AI6" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45239,7 +45255,7 @@
         <v>144464</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">VLOOKUP(G7,$B$98:$C$341,2,0)</f>
@@ -45255,7 +45271,7 @@
         <v>9776</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="U7" s="41" t="n">
         <v>8504597</v>
@@ -45264,7 +45280,7 @@
         <v>65</v>
       </c>
       <c r="W7" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="39" t="n">
@@ -45274,7 +45290,7 @@
         <v>15</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AC7" s="41" t="n">
         <v>11245</v>
@@ -45283,7 +45299,7 @@
         <v>65</v>
       </c>
       <c r="AE7" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG7" s="41" t="n">
         <v>13064</v>
@@ -45292,7 +45308,7 @@
         <v>65</v>
       </c>
       <c r="AI7" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45304,13 +45320,13 @@
         <v>144335</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L8" s="49" t="n">
         <v>11281</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="U8" s="41" t="n">
         <v>8506591</v>
@@ -45319,7 +45335,7 @@
         <v>65</v>
       </c>
       <c r="W8" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X8" s="28"/>
       <c r="Y8" s="41" t="n">
@@ -45329,7 +45345,7 @@
         <v>65</v>
       </c>
       <c r="AA8" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC8" s="41" t="n">
         <v>11246</v>
@@ -45338,7 +45354,7 @@
         <v>65</v>
       </c>
       <c r="AE8" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG8" s="41" t="n">
         <v>8503439</v>
@@ -45347,7 +45363,7 @@
         <v>65</v>
       </c>
       <c r="AI8" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45359,7 +45375,7 @@
         <v>143324</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="U9" s="41" t="n">
         <v>8506608</v>
@@ -45368,7 +45384,7 @@
         <v>65</v>
       </c>
       <c r="W9" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
@@ -45381,7 +45397,7 @@
         <v>65</v>
       </c>
       <c r="AE9" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG9" s="41" t="n">
         <v>8888814</v>
@@ -45390,12 +45406,12 @@
         <v>65</v>
       </c>
       <c r="AI9" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="40" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="U10" s="41" t="n">
         <v>8504606</v>
@@ -45404,7 +45420,7 @@
         <v>65</v>
       </c>
       <c r="W10" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="39" t="n">
@@ -45414,7 +45430,7 @@
         <v>15</v>
       </c>
       <c r="AA10" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AC10" s="41" t="n">
         <v>11255</v>
@@ -45423,7 +45439,7 @@
         <v>65</v>
       </c>
       <c r="AE10" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG10" s="41" t="n">
         <v>17220</v>
@@ -45432,18 +45448,18 @@
         <v>65</v>
       </c>
       <c r="AI10" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="U11" s="41" t="n">
         <v>8504614</v>
@@ -45452,7 +45468,7 @@
         <v>65</v>
       </c>
       <c r="W11" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X11" s="28"/>
       <c r="Y11" s="41" t="n">
@@ -45462,7 +45478,7 @@
         <v>65</v>
       </c>
       <c r="AA11" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC11" s="41" t="n">
         <v>11198</v>
@@ -45471,7 +45487,7 @@
         <v>65</v>
       </c>
       <c r="AE11" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG11" s="41" t="n">
         <v>800000124</v>
@@ -45480,7 +45496,7 @@
         <v>65</v>
       </c>
       <c r="AI11" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45495,16 +45511,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="U12" s="41" t="n">
         <v>8504617</v>
@@ -45513,7 +45529,7 @@
         <v>65</v>
       </c>
       <c r="W12" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X12" s="28"/>
       <c r="Y12" s="41" t="n">
@@ -45523,7 +45539,7 @@
         <v>65</v>
       </c>
       <c r="AA12" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC12" s="41" t="n">
         <v>11338</v>
@@ -45532,7 +45548,7 @@
         <v>65</v>
       </c>
       <c r="AE12" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG12" s="41" t="n">
         <v>13529</v>
@@ -45541,7 +45557,7 @@
         <v>65</v>
       </c>
       <c r="AI12" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45553,13 +45569,13 @@
         <v>142724</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L13" s="46" t="n">
         <v>13022</v>
@@ -45568,7 +45584,7 @@
         <v>66</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U13" s="41" t="n">
         <v>8504627</v>
@@ -45577,7 +45593,7 @@
         <v>65</v>
       </c>
       <c r="W13" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="X13" s="28"/>
       <c r="Y13" s="41" t="n">
@@ -45587,7 +45603,7 @@
         <v>65</v>
       </c>
       <c r="AA13" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC13" s="41" t="n">
         <v>13052</v>
@@ -45596,7 +45612,7 @@
         <v>65</v>
       </c>
       <c r="AE13" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG13" s="41" t="n">
         <v>13071</v>
@@ -45605,7 +45621,7 @@
         <v>65</v>
       </c>
       <c r="AI13" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45617,7 +45633,7 @@
         <v>142714</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F14" s="0" t="e">
         <f aca="false">VLOOKUP(G14,$B$98:$C$341,2,0)</f>
@@ -45627,16 +45643,16 @@
         <v>144286</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L14" s="49" t="n">
         <v>13023</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
@@ -45649,7 +45665,7 @@
         <v>65</v>
       </c>
       <c r="AA14" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC14" s="41" t="n">
         <v>11247</v>
@@ -45658,7 +45674,7 @@
         <v>65</v>
       </c>
       <c r="AE14" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45670,7 +45686,7 @@
         <v>142695</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">VLOOKUP(G15,$B$98:$C$341,2,0)</f>
@@ -45680,13 +45696,13 @@
         <v>144474</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L15" s="49" t="n">
         <v>17940</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
@@ -45697,7 +45713,7 @@
         <v>65</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC15" s="41" t="n">
         <v>8510576</v>
@@ -45706,7 +45722,7 @@
         <v>65</v>
       </c>
       <c r="AE15" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45718,13 +45734,13 @@
         <v>143257</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L16" s="49" t="n">
         <v>8507647</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
@@ -45735,7 +45751,7 @@
         <v>65</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC16" s="41" t="n">
         <v>15596</v>
@@ -45744,7 +45760,7 @@
         <v>65</v>
       </c>
       <c r="AE16" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45756,13 +45772,13 @@
         <v>143240</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L17" s="49" t="n">
         <v>8507649</v>
       </c>
       <c r="M17" s="49" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
@@ -45776,12 +45792,12 @@
         <v>65</v>
       </c>
       <c r="AE17" s="41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="40" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">VLOOKUP(G18,$B$98:$C$341,2,0)</f>
@@ -45791,15 +45807,15 @@
         <v>143260</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45814,10 +45830,10 @@
         <v>63</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45829,13 +45845,13 @@
         <v>144586</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45846,7 +45862,7 @@
         <v>73</v>
       </c>
       <c r="N22" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45854,32 +45870,32 @@
         <v>8501455</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="40" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L24" s="49" t="n">
         <v>8501454</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L25" s="49" t="n">
         <v>15507</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45894,7 +45910,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45906,7 +45922,7 @@
         <v>144387</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45918,10 +45934,10 @@
         <v>144384</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45933,13 +45949,13 @@
         <v>141824</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45950,7 +45966,7 @@
         <v>70</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45958,26 +45974,26 @@
         <v>16169</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="40" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L32" s="49" t="n">
         <v>16181</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45992,7 +46008,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46004,18 +46020,18 @@
         <v>143016</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L35" s="40" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L36" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46026,32 +46042,32 @@
         <v>71</v>
       </c>
       <c r="N37" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="40" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L38" s="49" t="n">
         <v>11280</v>
       </c>
       <c r="M38" s="50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L39" s="49" t="n">
         <v>12911</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46066,13 +46082,13 @@
         <v>59</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L40" s="49" t="n">
         <v>14931</v>
       </c>
       <c r="M40" s="49" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46084,13 +46100,13 @@
         <v>143287</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L41" s="49" t="n">
         <v>14932</v>
       </c>
       <c r="M41" s="49" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46102,13 +46118,13 @@
         <v>143275</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L42" s="49" t="n">
         <v>8509485</v>
       </c>
       <c r="M42" s="49" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46120,7 +46136,7 @@
         <v>142959</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46132,7 +46148,7 @@
         <v>144645</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46144,10 +46160,10 @@
         <v>142958</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46159,13 +46175,13 @@
         <v>141814</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L46" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46177,7 +46193,7 @@
         <v>143294</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L47" s="46" t="n">
         <v>11326</v>
@@ -46186,7 +46202,7 @@
         <v>74</v>
       </c>
       <c r="N47" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46194,7 +46210,7 @@
         <v>14290</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46202,32 +46218,32 @@
         <v>14291</v>
       </c>
       <c r="M49" s="49" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="40" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L50" s="49" t="n">
         <v>14289</v>
       </c>
       <c r="M50" s="49" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L51" s="49" t="n">
         <v>11327</v>
       </c>
       <c r="M51" s="49" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46242,13 +46258,13 @@
         <v>60</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L52" s="49" t="n">
         <v>11232</v>
       </c>
       <c r="M52" s="49" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46260,13 +46276,13 @@
         <v>143716</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L53" s="49" t="n">
         <v>14288</v>
       </c>
       <c r="M53" s="49" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46278,13 +46294,13 @@
         <v>143157</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L54" s="49" t="n">
         <v>17902</v>
       </c>
       <c r="M54" s="49" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46296,35 +46312,35 @@
         <v>144554</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L55" s="49" t="n">
         <v>8500535</v>
       </c>
       <c r="M55" s="49" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="40" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L58" s="40" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L59" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M59" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46339,7 +46355,7 @@
         <v>64</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L60" s="46" t="n">
         <v>8506659</v>
@@ -46348,7 +46364,7 @@
         <v>72</v>
       </c>
       <c r="N60" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46360,13 +46376,13 @@
         <v>142575</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L61" s="49" t="n">
         <v>8506658</v>
       </c>
       <c r="M61" s="50" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46378,13 +46394,13 @@
         <v>142574</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L62" s="49" t="n">
         <v>8510182</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46396,13 +46412,13 @@
         <v>144588</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L63" s="49" t="n">
         <v>9999930</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46410,23 +46426,23 @@
         <v>8503011</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="40" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L67" s="40" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46441,13 +46457,13 @@
         <v>61</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L68" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M68" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46459,7 +46475,7 @@
         <v>144615</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L69" s="46" t="n">
         <v>8500316</v>
@@ -46468,7 +46484,7 @@
         <v>75</v>
       </c>
       <c r="N69" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46480,13 +46496,13 @@
         <v>144616</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L70" s="49" t="n">
         <v>8500315</v>
       </c>
       <c r="M70" s="50" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46494,7 +46510,7 @@
         <v>8502981</v>
       </c>
       <c r="M71" s="50" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46502,7 +46518,7 @@
         <v>8500314</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46510,7 +46526,7 @@
         <v>8502983</v>
       </c>
       <c r="M73" s="50" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46518,7 +46534,7 @@
         <v>8502982</v>
       </c>
       <c r="M74" s="50" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
